--- a/Datos/Anuario2024/150301_ViolenciaGenero.xlsx
+++ b/Datos/Anuario2024/150301_ViolenciaGenero.xlsx
@@ -1,167 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6945" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="6945"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0" sheetId="27" r:id="rId1"/>
+    <sheet name="1" sheetId="25" r:id="rId2"/>
+    <sheet name="2" sheetId="26" r:id="rId3"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_R1_1" localSheetId="0">'0'!$A$1:$A$2</definedName>
+    <definedName name="_R1_1" localSheetId="1">'1'!#REF!</definedName>
+    <definedName name="_R1_1" localSheetId="2">'2'!#REF!</definedName>
     <definedName name="_R1_1">#REF!</definedName>
+    <definedName name="_R1_10" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_10">#REF!</definedName>
+    <definedName name="_R1_11" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_11">#REF!</definedName>
+    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_3">#REF!</definedName>
+    <definedName name="_R1_5" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_5">#REF!</definedName>
+    <definedName name="_R1_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_7">#REF!</definedName>
+    <definedName name="_R1_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_8">#REF!</definedName>
+    <definedName name="_R1_9" localSheetId="0">#REF!</definedName>
     <definedName name="_R1_9">#REF!</definedName>
+    <definedName name="_R2_1" localSheetId="0">'[1]3.1'!#REF!</definedName>
     <definedName name="_R2_1">'[1]3.1'!#REF!</definedName>
+    <definedName name="_R2_10" localSheetId="0">#REF!</definedName>
     <definedName name="_R2_10">#REF!</definedName>
+    <definedName name="_R2_2" localSheetId="0">'[1]3.2'!#REF!</definedName>
     <definedName name="_R2_2">'[1]3.2'!#REF!</definedName>
+    <definedName name="_R2_3" localSheetId="0">'[1]3.4'!#REF!</definedName>
     <definedName name="_R2_3">'[1]3.4'!#REF!</definedName>
+    <definedName name="_R2_4" localSheetId="0">'[1]3.3'!#REF!</definedName>
     <definedName name="_R2_4">'[1]3.3'!#REF!</definedName>
+    <definedName name="_R2_5" localSheetId="0">'[1]3.5'!#REF!</definedName>
     <definedName name="_R2_5">'[1]3.5'!#REF!</definedName>
+    <definedName name="_R2_6" localSheetId="0">'[1]3.6'!#REF!</definedName>
     <definedName name="_R2_6">'[1]3.6'!#REF!</definedName>
+    <definedName name="_R2_7" localSheetId="0">'[1]3.7'!#REF!</definedName>
     <definedName name="_R2_7">'[1]3.7'!#REF!</definedName>
+    <definedName name="_R2_8" localSheetId="0">'[1]3.11'!#REF!</definedName>
     <definedName name="_R2_8">'[1]3.11'!#REF!</definedName>
+    <definedName name="_R3_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_2">#REF!</definedName>
+    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_3">#REF!</definedName>
+    <definedName name="_R3_5" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_5">#REF!</definedName>
+    <definedName name="_R3_6" localSheetId="0">#REF!</definedName>
     <definedName name="_R3_6">#REF!</definedName>
+    <definedName name="_R4_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_1">#REF!</definedName>
+    <definedName name="_R4_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_2">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
+    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
     <definedName name="_R4_3">#REF!</definedName>
+    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R4_4">#REF!</definedName>
+    <definedName name="_R6_1" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_1">#REF!</definedName>
+    <definedName name="_R6_10" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_10">#REF!</definedName>
+    <definedName name="_R6_11" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_11">#REF!</definedName>
+    <definedName name="_R6_2" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_2">#REF!</definedName>
+    <definedName name="_R6_3" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_3">#REF!</definedName>
+    <definedName name="_R6_4" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_4">#REF!</definedName>
+    <definedName name="_R6_5" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_5">#REF!</definedName>
+    <definedName name="_R6_6" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_6">#REF!</definedName>
+    <definedName name="_R6_7" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_7">#REF!</definedName>
+    <definedName name="_R6_8" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_8">#REF!</definedName>
+    <definedName name="_R6_9" localSheetId="0">#REF!</definedName>
     <definedName name="_R6_9">#REF!</definedName>
+    <definedName name="o" localSheetId="0">#REF!</definedName>
     <definedName name="o">#REF!</definedName>
+    <definedName name="P_2" localSheetId="0">'[1]3.5'!#REF!</definedName>
     <definedName name="P_2">'[1]3.5'!#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="0">'0'!$A$1:$A$2</definedName>
-    <definedName name="_R1_10" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_11" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_5" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R1_9" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_1" localSheetId="0">'[1]3.1'!#REF!</definedName>
-    <definedName name="_R2_10" localSheetId="0">#REF!</definedName>
-    <definedName name="_R2_2" localSheetId="0">'[1]3.2'!#REF!</definedName>
-    <definedName name="_R2_3" localSheetId="0">'[1]3.4'!#REF!</definedName>
-    <definedName name="_R2_4" localSheetId="0">'[1]3.3'!#REF!</definedName>
-    <definedName name="_R2_5" localSheetId="0">'[1]3.5'!#REF!</definedName>
-    <definedName name="_R2_6" localSheetId="0">'[1]3.6'!#REF!</definedName>
-    <definedName name="_R2_7" localSheetId="0">'[1]3.7'!#REF!</definedName>
-    <definedName name="_R2_8" localSheetId="0">'[1]3.11'!#REF!</definedName>
-    <definedName name="_R3_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_5" localSheetId="0">#REF!</definedName>
-    <definedName name="_R3_6" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R4_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_1" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_10" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_11" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_2" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_3" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_4" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_5" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_6" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_7" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_8" localSheetId="0">#REF!</definedName>
-    <definedName name="_R6_9" localSheetId="0">#REF!</definedName>
-    <definedName name="o" localSheetId="0">#REF!</definedName>
-    <definedName name="P_2" localSheetId="0">'[1]3.5'!#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="1">'1'!#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="1">#REF!</definedName>
-    <definedName name="_R1_1" localSheetId="2">'2'!#REF!</definedName>
-    <definedName name="_R4_3" localSheetId="2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Presentada directamente por familiares</t>
+  </si>
+  <si>
+    <t>Atestados policiales - con denuncia familiar</t>
+  </si>
+  <si>
+    <t>Atestados policiales - por intervención directa policial</t>
+  </si>
+  <si>
+    <t>Parte de lesiones</t>
+  </si>
+  <si>
+    <t>Presentada directamente por la víctima</t>
+  </si>
+  <si>
+    <t>Atestados policiales - con denuncia víctima</t>
+  </si>
+  <si>
+    <t>A instancia de la víctima</t>
+  </si>
+  <si>
+    <t>A instancia de otras personas</t>
+  </si>
+  <si>
+    <t>A instancia del Ministerio Fiscal</t>
+  </si>
+  <si>
+    <t>De oficio</t>
+  </si>
+  <si>
+    <t>A instancia de la Administración</t>
+  </si>
+  <si>
+    <t>Fuente: Portal estadístico de la Delegación del Gobierno contra la Violencia de Género</t>
+  </si>
+  <si>
+    <t>VIOLENCIA DE GÉNERO</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>Provincia de València</t>
+  </si>
+  <si>
+    <t>Comunidad Valenciana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Denuncias por Violencia de Género según origen de la denuncia.2022-2023 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Órdenes de protección por Violencia de Género según instancia de la petición. 2022-2023 </t>
+  </si>
+  <si>
+    <t>Servicios asistencia - Terceros en general</t>
+  </si>
+  <si>
+    <t>Variación 22/23</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -179,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -205,90 +282,69 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="4"/>
     <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
-    <cellStyle name="Normal 3" xfId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -357,13 +413,24 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFD4DFF4"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -882,797 +949,715 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="47" customWidth="1" style="7" min="1" max="2"/>
-    <col width="13.5703125" customWidth="1" style="7" min="3" max="5"/>
-    <col width="11.42578125" customWidth="1" style="7" min="6" max="16384"/>
+    <col min="1" max="2" width="47" style="1" customWidth="1"/>
+    <col min="3" max="5" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t>VIOLENCIA DE GÉNERO</t>
-        </is>
-      </c>
-      <c r="B1" s="10" t="n"/>
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="44.5703125" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="8.85546875" customWidth="1" style="7" min="2" max="10"/>
-    <col width="11.42578125" customWidth="1" style="7" min="11" max="16384"/>
+    <col min="1" max="1" width="44.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1. Denuncias por Violencia de Género según origen de la denuncia.2022-2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="E3" s="21" t="inlineStr">
-        <is>
-          <t>Provincia de València</t>
-        </is>
-      </c>
-      <c r="G3" s="22" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="28.15" customHeight="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="4" t="n">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
         <v>2022</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>2023</v>
       </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>Variación 22/23</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
         <v>2022</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>2023</v>
       </c>
-      <c r="G4" s="12" t="inlineStr">
-        <is>
-          <t>Variación 22/23</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
         <v>2022</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="4">
         <v>2023</v>
       </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>Variación 22/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="J4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="15">
         <f>SUM(B6:B12)</f>
-        <v/>
+        <v>5325</v>
       </c>
       <c r="C5" s="15">
         <f>SUM(C6:C12)</f>
-        <v/>
-      </c>
-      <c r="D5" s="23">
+        <v>5436</v>
+      </c>
+      <c r="D5" s="11">
         <f>(C5-B5)/B5</f>
-        <v/>
+        <v>2.0845070422535212E-2</v>
       </c>
       <c r="E5" s="15">
         <f>SUM(E6:E12)</f>
-        <v/>
+        <v>12887</v>
       </c>
       <c r="F5" s="15">
         <f>SUM(F6:F12)</f>
-        <v/>
-      </c>
-      <c r="G5" s="23">
+        <v>14158</v>
+      </c>
+      <c r="G5" s="11">
         <f>(F5-E5)/E5</f>
-        <v/>
+        <v>9.8626522852487006E-2</v>
       </c>
       <c r="H5" s="15">
         <f>SUM(H6:H12)</f>
-        <v/>
+        <v>26566</v>
       </c>
       <c r="I5" s="15">
         <f>SUM(I6:I12)</f>
-        <v/>
-      </c>
-      <c r="J5" s="23">
+        <v>28955</v>
+      </c>
+      <c r="J5" s="11">
         <f>(I5-H5)/H5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>Presentada directamente por la víctima</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+        <v>8.9926974328088535E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
         <v>14</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>15</v>
       </c>
-      <c r="D6" s="24">
-        <f>(C6-B6)/B6</f>
-        <v/>
-      </c>
-      <c r="E6" s="9" t="n">
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:D12" si="0">(C6-B6)/B6</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="E6" s="9">
         <v>242</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>164</v>
       </c>
-      <c r="G6" s="24">
-        <f>(F6-E6)/E6</f>
-        <v/>
-      </c>
-      <c r="H6" s="9" t="n">
+      <c r="G6" s="16">
+        <f t="shared" ref="G6:G12" si="1">(F6-E6)/E6</f>
+        <v>-0.32231404958677684</v>
+      </c>
+      <c r="H6" s="9">
         <v>303</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="9">
         <v>188</v>
       </c>
-      <c r="J6" s="24">
-        <f>(I6-H6)/H6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Presentada directamente por familiares</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="J6" s="16">
+        <f t="shared" ref="J6:J12" si="2">(I6-H6)/H6</f>
+        <v>-0.37953795379537952</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>18</v>
       </c>
-      <c r="D7" s="25">
-        <f>(C7-B7)/B7</f>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E7" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>18</v>
       </c>
-      <c r="G7" s="25">
-        <f>(F7-E7)/E7</f>
-        <v/>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="2">
         <v>61</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>18</v>
       </c>
-      <c r="J7" s="25">
-        <f>(I7-H7)/H7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>Atestados policiales - con denuncia víctima</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
+      <c r="J7" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.70491803278688525</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
         <v>2841</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>2976</v>
       </c>
-      <c r="D8" s="24">
-        <f>(C8-B8)/B8</f>
-        <v/>
-      </c>
-      <c r="E8" s="9" t="n">
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>4.7518479408658922E-2</v>
+      </c>
+      <c r="E8" s="9">
         <v>7626</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>8576</v>
       </c>
-      <c r="G8" s="24">
-        <f>(F8-E8)/E8</f>
-        <v/>
-      </c>
-      <c r="H8" s="9" t="n">
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>0.12457382638342512</v>
+      </c>
+      <c r="H8" s="9">
         <v>16614</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="9">
         <v>18866</v>
       </c>
-      <c r="J8" s="24">
-        <f>(I8-H8)/H8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>Atestados policiales - con denuncia familiar</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="J8" s="16">
+        <f t="shared" si="2"/>
+        <v>0.13554833273143133</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2">
         <v>48</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>104</v>
       </c>
-      <c r="D9" s="25">
-        <f>(C9-B9)/B9</f>
-        <v/>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E9" s="2">
         <v>176</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>200</v>
       </c>
-      <c r="G9" s="25">
-        <f>(F9-E9)/E9</f>
-        <v/>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="H9" s="2">
         <v>406</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>418</v>
       </c>
-      <c r="J9" s="25">
-        <f>(I9-H9)/H9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>Atestados policiales - por intervención directa policial</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+      <c r="J9" s="13">
+        <f t="shared" si="2"/>
+        <v>2.9556650246305417E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9">
         <v>1615</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>1454</v>
       </c>
-      <c r="D10" s="24">
-        <f>(C10-B10)/B10</f>
-        <v/>
-      </c>
-      <c r="E10" s="9" t="n">
+      <c r="D10" s="16">
+        <f t="shared" si="0"/>
+        <v>-9.9690402476780182E-2</v>
+      </c>
+      <c r="E10" s="9">
         <v>2306</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>2740</v>
       </c>
-      <c r="G10" s="24">
-        <f>(F10-E10)/E10</f>
-        <v/>
-      </c>
-      <c r="H10" s="9" t="n">
+      <c r="G10" s="16">
+        <f t="shared" si="1"/>
+        <v>0.18820468343451865</v>
+      </c>
+      <c r="H10" s="9">
         <v>3775</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="9">
         <v>4345</v>
       </c>
-      <c r="J10" s="24">
-        <f>(I10-H10)/H10</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="5" t="inlineStr">
-        <is>
-          <t>Parte de lesiones</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="J10" s="16">
+        <f t="shared" si="2"/>
+        <v>0.15099337748344371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="2">
         <v>667</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="2">
         <v>737</v>
       </c>
-      <c r="D11" s="25">
-        <f>(C11-B11)/B11</f>
-        <v/>
-      </c>
-      <c r="E11" s="2" t="n">
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10494752623688156</v>
+      </c>
+      <c r="E11" s="2">
         <v>1508</v>
       </c>
-      <c r="F11" s="2" t="n">
+      <c r="F11" s="2">
         <v>1706</v>
       </c>
-      <c r="G11" s="25">
-        <f>(F11-E11)/E11</f>
-        <v/>
-      </c>
-      <c r="H11" s="2" t="n">
+      <c r="G11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1312997347480106</v>
+      </c>
+      <c r="H11" s="2">
         <v>2736</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="I11" s="2">
         <v>3281</v>
       </c>
-      <c r="J11" s="25">
-        <f>(I11-H11)/H11</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="8" t="inlineStr">
-        <is>
-          <t>Servicios asistencia - Terceros en general</t>
-        </is>
-      </c>
-      <c r="B12" s="9" t="n">
+      <c r="J11" s="13">
+        <f t="shared" si="2"/>
+        <v>0.19919590643274854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="9">
         <v>137</v>
       </c>
-      <c r="C12" s="9" t="n">
+      <c r="C12" s="9">
         <v>132</v>
       </c>
-      <c r="D12" s="24">
-        <f>(C12-B12)/B12</f>
-        <v/>
-      </c>
-      <c r="E12" s="9" t="n">
+      <c r="D12" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.6496350364963501E-2</v>
+      </c>
+      <c r="E12" s="9">
         <v>1017</v>
       </c>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>754</v>
       </c>
-      <c r="G12" s="24">
-        <f>(F12-E12)/E12</f>
-        <v/>
-      </c>
-      <c r="H12" s="9" t="n">
+      <c r="G12" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.25860373647984269</v>
+      </c>
+      <c r="H12" s="9">
         <v>2671</v>
       </c>
-      <c r="I12" s="9" t="n">
+      <c r="I12" s="9">
         <v>1839</v>
       </c>
-      <c r="J12" s="24">
-        <f>(I12-H12)/H12</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customFormat="1" customHeight="1" s="7">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Portal estadístico de la Delegación del Gobierno contra la Violencia de Género</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
-      <c r="C13" s="7" t="n"/>
-      <c r="D13" s="7" t="n"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1"/>
+      <c r="J12" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.31149382253837515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="78" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="78" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="27.7109375" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="9.28515625" customWidth="1" style="7" min="2" max="10"/>
-    <col width="11.42578125" customWidth="1" style="7" min="11" max="16384"/>
+    <col min="1" max="1" width="27.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="9.28515625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2. Órdenes de protección por Violencia de Género según instancia de la petición. 2022-2023 </t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="17" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="E3" s="21" t="inlineStr">
-        <is>
-          <t>Provincia de València</t>
-        </is>
-      </c>
-      <c r="G3" s="22" t="n"/>
-      <c r="H3" s="17" t="inlineStr">
-        <is>
-          <t>Comunidad Valenciana</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="28.15" customHeight="1">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="4" t="n">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="1:10" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4">
         <v>2022</v>
       </c>
-      <c r="C4" s="4" t="n">
+      <c r="C4" s="4">
         <v>2023</v>
       </c>
-      <c r="D4" s="12" t="inlineStr">
-        <is>
-          <t>Variación 22/23</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="n">
+      <c r="D4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
         <v>2022</v>
       </c>
-      <c r="F4" s="4" t="n">
+      <c r="F4" s="4">
         <v>2023</v>
       </c>
-      <c r="G4" s="12" t="inlineStr">
-        <is>
-          <t>Variación 22/23</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="n">
+      <c r="G4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="4">
         <v>2022</v>
       </c>
-      <c r="I4" s="4" t="n">
+      <c r="I4" s="4">
         <v>2023</v>
       </c>
-      <c r="J4" s="12" t="inlineStr">
-        <is>
-          <t>Variación 22/23</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="14" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="J4" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="B5" s="15">
         <f>SUM(B6:B10)</f>
-        <v/>
+        <v>1095</v>
       </c>
       <c r="C5" s="15">
         <f>SUM(C6:C10)</f>
-        <v/>
-      </c>
-      <c r="D5" s="23">
+        <v>1131</v>
+      </c>
+      <c r="D5" s="11">
         <f>(C5-B5)/B5</f>
-        <v/>
+        <v>3.287671232876712E-2</v>
       </c>
       <c r="E5" s="15">
         <f>SUM(E6:E10)</f>
-        <v/>
+        <v>2783</v>
       </c>
       <c r="F5" s="15">
         <f>SUM(F6:F10)</f>
-        <v/>
-      </c>
-      <c r="G5" s="23">
+        <v>2411</v>
+      </c>
+      <c r="G5" s="11">
         <f>(F5-E5)/E5</f>
-        <v/>
+        <v>-0.13366870283866331</v>
       </c>
       <c r="H5" s="15">
         <f>SUM(H6:H10)</f>
-        <v/>
+        <v>5458</v>
       </c>
       <c r="I5" s="15">
         <f>SUM(I6:I10)</f>
-        <v/>
-      </c>
-      <c r="J5" s="23">
+        <v>5373</v>
+      </c>
+      <c r="J5" s="11">
         <f>(I5-H5)/H5</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="8" t="inlineStr">
-        <is>
-          <t>A instancia de la víctima</t>
-        </is>
-      </c>
-      <c r="B6" s="9" t="n">
+        <v>-1.5573470135580799E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
         <v>1033</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C6" s="9">
         <v>1050</v>
       </c>
-      <c r="D6" s="24">
-        <f>(C6-B6)/B6</f>
-        <v/>
-      </c>
-      <c r="E6" s="9" t="n">
+      <c r="D6" s="16">
+        <f t="shared" ref="D6:D9" si="0">(C6-B6)/B6</f>
+        <v>1.6456921587608905E-2</v>
+      </c>
+      <c r="E6" s="9">
         <v>2649</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>2298</v>
       </c>
-      <c r="G6" s="24">
-        <f>(F6-E6)/E6</f>
-        <v/>
-      </c>
-      <c r="H6" s="9" t="n">
+      <c r="G6" s="16">
+        <f t="shared" ref="G6:G9" si="1">(F6-E6)/E6</f>
+        <v>-0.13250283125707815</v>
+      </c>
+      <c r="H6" s="9">
         <v>5043</v>
       </c>
-      <c r="I6" s="9" t="n">
+      <c r="I6" s="9">
         <v>5069</v>
       </c>
-      <c r="J6" s="24">
-        <f>(I6-H6)/H6</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>A instancia de otras personas</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="J6" s="16">
+        <f t="shared" ref="J6:J9" si="2">(I6-H6)/H6</f>
+        <v>5.1556613127106878E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="25">
-        <f>(C7-B7)/B7</f>
-        <v/>
-      </c>
-      <c r="E7" s="2" t="n">
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="2">
         <v>2</v>
       </c>
-      <c r="G7" s="25">
-        <f>(F7-E7)/E7</f>
-        <v/>
-      </c>
-      <c r="H7" s="2" t="n">
+      <c r="G7" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="H7" s="2">
         <v>7</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="I7" s="2">
         <v>5</v>
       </c>
-      <c r="J7" s="25">
-        <f>(I7-H7)/H7</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A8" s="8" t="inlineStr">
-        <is>
-          <t>A instancia del Ministerio Fiscal</t>
-        </is>
-      </c>
-      <c r="B8" s="9" t="n">
+      <c r="J7" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="9">
         <v>31</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C8" s="9">
         <v>42</v>
       </c>
-      <c r="D8" s="24">
-        <f>(C8-B8)/B8</f>
-        <v/>
-      </c>
-      <c r="E8" s="9" t="n">
+      <c r="D8" s="16">
+        <f t="shared" si="0"/>
+        <v>0.35483870967741937</v>
+      </c>
+      <c r="E8" s="9">
         <v>71</v>
       </c>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>69</v>
       </c>
-      <c r="G8" s="24">
-        <f>(F8-E8)/E8</f>
-        <v/>
-      </c>
-      <c r="H8" s="9" t="n">
+      <c r="G8" s="16">
+        <f t="shared" si="1"/>
+        <v>-2.8169014084507043E-2</v>
+      </c>
+      <c r="H8" s="9">
         <v>336</v>
       </c>
-      <c r="I8" s="9" t="n">
+      <c r="I8" s="9">
         <v>255</v>
       </c>
-      <c r="J8" s="24">
-        <f>(I8-H8)/H8</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A9" s="5" t="inlineStr">
-        <is>
-          <t>De oficio</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="J8" s="16">
+        <f t="shared" si="2"/>
+        <v>-0.24107142857142858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="2">
         <v>38</v>
       </c>
-      <c r="D9" s="25">
-        <f>(C9-B9)/B9</f>
-        <v/>
-      </c>
-      <c r="E9" s="2" t="n">
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E9" s="2">
         <v>60</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F9" s="2">
         <v>42</v>
       </c>
-      <c r="G9" s="25">
-        <f>(F9-E9)/E9</f>
-        <v/>
-      </c>
-      <c r="H9" s="2" t="n">
+      <c r="G9" s="13">
+        <f t="shared" si="1"/>
+        <v>-0.3</v>
+      </c>
+      <c r="H9" s="2">
         <v>72</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="I9" s="2">
         <v>44</v>
       </c>
-      <c r="J9" s="25">
-        <f>(I9-H9)/H9</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customFormat="1" customHeight="1" s="7">
-      <c r="A10" s="8" t="inlineStr">
-        <is>
-          <t>A instancia de la Administración</t>
-        </is>
-      </c>
-      <c r="B10" s="9" t="n">
+      <c r="J9" s="13">
+        <f t="shared" si="2"/>
+        <v>-0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9">
         <v>0</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C10" s="9">
         <v>0</v>
       </c>
-      <c r="D10" s="24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E10" s="9" t="n">
+      <c r="D10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="9">
         <v>0</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>0</v>
       </c>
-      <c r="G10" s="24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" s="9" t="n">
+      <c r="G10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="9">
         <v>0</v>
       </c>
-      <c r="I10" s="9" t="n">
+      <c r="I10" s="9">
         <v>0</v>
       </c>
-      <c r="J10" s="24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customFormat="1" customHeight="1" s="7">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>Fuente: Portal estadístico de la Delegación del Gobierno contra la Violencia de Género</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
-      <c r="C11" s="7" t="n"/>
-      <c r="D11" s="7" t="n"/>
-    </row>
-    <row r="12" ht="12.75" customHeight="1"/>
+      <c r="J10" s="16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="H3:J3"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="87" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="87" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>